--- a/User login.xlsx
+++ b/User login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testcomplete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA335A1-74CF-49F7-96BD-85B70E5B284A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD7D691-AAA5-4F88-B4B6-C89078EE69E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="2775" windowWidth="21600" windowHeight="11385" xr2:uid="{AD240BB2-640B-4025-8E58-F2B26648E58E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD240BB2-640B-4025-8E58-F2B26648E58E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>mc2</t>
   </si>
@@ -50,10 +50,31 @@
     <t>MC2_admin</t>
   </si>
   <si>
+    <t>Alfy</t>
+  </si>
+  <si>
+    <t>Yessika</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>Burhan</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Zera</t>
+  </si>
+  <si>
+    <t>Ika</t>
+  </si>
+  <si>
     <t>adit</t>
-  </si>
-  <si>
-    <t>www</t>
   </si>
 </sst>
 </file>
@@ -109,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFA7ECF-387E-4B4F-80B9-3B4A11B6CF92}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,18 +476,74 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
